--- a/Pipeline.xlsx
+++ b/Pipeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stuart\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University subjects\Thesis\Python projects\SmokeFasterRCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE3502-669D-449F-89C1-66E0C2D655FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06B1A9-7E5A-452D-84AB-41C12DD688F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F760C4-A343-42D3-AAA0-F5948381AA71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{07F760C4-A343-42D3-AAA0-F5948381AA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Training sheet" sheetId="1" r:id="rId1"/>
@@ -6703,8 +6703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EC4B5D-3238-417A-AFF3-0ADF9A9A35EC}">
   <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="142" spans="1:15" ht="24">
       <c r="A142" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1162</v>
@@ -12581,8 +12581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CEA08B-9B9C-43F9-8EEF-CF0636C643C0}">
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="188" spans="1:11" ht="24">
       <c r="A188" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>1162</v>
